--- a/DailyPlan/DailyPlan_w9.xlsx
+++ b/DailyPlan/DailyPlan_w9.xlsx
@@ -448,7 +448,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
